--- a/domaingroups/Rossmann-related/e4h4rA3_results.xlsx
+++ b/domaingroups/Rossmann-related/e4h4rA3_results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_boun_edu_tr/Documents/Themes&amp;Dynamics/New Domains/Calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bounedutr-my.sharepoint.com/personal/yigit_kutlu_bounedutr_onmicrosoft_com/Documents/Themes&amp;Dynamics/WebSiteFiles/Rossmann-related/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588DA53B-4680-4B21-B80E-DC5CF79AA723}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC10481D999E7FD05ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A7A6BC-6843-4783-8BC6-38271D225B3C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Dynamic Domains</t>
-  </si>
-  <si>
     <t>Theme Combinations</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Mode-7</t>
+  </si>
+  <si>
+    <t>Dynamic Elements</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -247,27 +247,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,13 +548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,16 +566,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I1" s="6"/>
       <c r="P1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="Y1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -587,7 +585,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
@@ -597,111 +595,111 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0">
+      <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0">
-        <v>46</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
@@ -715,611 +713,412 @@
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="S3">
+        <v>1.3546</v>
+      </c>
+      <c r="T3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="U3">
+        <v>1.0844</v>
+      </c>
+      <c r="V3">
+        <v>0.9667</v>
+      </c>
+      <c r="W3">
+        <v>0.9667</v>
+      </c>
+      <c r="X3">
+        <v>0.2026</v>
+      </c>
+      <c r="Z3">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="AB3">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.2092</v>
+      </c>
+      <c r="AH3">
+        <v>65.28</v>
+      </c>
+      <c r="AI3">
+        <v>88.53</v>
+      </c>
+      <c r="AJ3">
+        <v>76.56</v>
+      </c>
+      <c r="AK3">
+        <v>88.44</v>
+      </c>
+      <c r="AL3">
+        <v>113.36</v>
+      </c>
+      <c r="AM3">
+        <v>113.36</v>
+      </c>
+      <c r="AN3">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0">
-        <v>49</v>
-      </c>
-      <c r="C3" s="0">
-        <v>113</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0">
-        <v>5</v>
-      </c>
-      <c r="G3" s="0">
-        <v>5</v>
-      </c>
-      <c r="H3" s="0">
-        <v>5</v>
-      </c>
-      <c r="I3" s="0">
-        <v>5</v>
-      </c>
-      <c r="J3" s="0">
-        <v>5</v>
-      </c>
-      <c r="K3" s="0">
-        <v>5</v>
-      </c>
-      <c r="L3" s="0">
-        <v>5</v>
-      </c>
-      <c r="N3" s="0">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0">
-        <v>2</v>
-      </c>
-      <c r="P3" s="0">
+      <c r="B4">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>307</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0">
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>239</v>
+      </c>
+      <c r="K4">
+        <v>239</v>
+      </c>
+      <c r="L4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>258</v>
+      </c>
+      <c r="I5">
+        <v>106</v>
+      </c>
+      <c r="J5">
+        <v>308</v>
+      </c>
+      <c r="K5">
+        <v>308</v>
+      </c>
+      <c r="L5">
+        <v>308</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5">
         <v>0.80940000000000001</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S5">
         <v>1.3546</v>
       </c>
-      <c r="T3" s="0">
+      <c r="T5">
         <v>0.94099999999999995</v>
       </c>
-      <c r="U3" s="0">
+      <c r="U5">
         <v>1.0844</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V5">
         <v>0.9667</v>
       </c>
-      <c r="W3" s="0">
+      <c r="W5">
         <v>0.9667</v>
       </c>
-      <c r="X3" s="0">
+      <c r="X5">
         <v>0.2026</v>
       </c>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0">
+      <c r="Z5">
         <v>0.56579999999999997</v>
       </c>
-      <c r="AA3" s="0">
+      <c r="AA5">
         <v>0.80279999999999996</v>
       </c>
-      <c r="AB3" s="0">
+      <c r="AB5">
         <v>0.62439999999999996</v>
       </c>
-      <c r="AC3" s="0">
+      <c r="AC5">
         <v>0.71240000000000003</v>
       </c>
-      <c r="AD3" s="0">
+      <c r="AD5">
         <v>0.78859999999999997</v>
       </c>
-      <c r="AE3" s="0">
+      <c r="AE5">
         <v>0.78859999999999997</v>
       </c>
-      <c r="AF3" s="0">
+      <c r="AF5">
         <v>0.2092</v>
       </c>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0">
-        <v>65.280000000000001</v>
-      </c>
-      <c r="AI3" s="0">
-        <v>88.530000000000001</v>
-      </c>
-      <c r="AJ3" s="0">
-        <v>76.560000000000002</v>
-      </c>
-      <c r="AK3" s="0">
-        <v>88.439999999999998</v>
-      </c>
-      <c r="AL3" s="0">
+      <c r="AH5">
+        <v>65.28</v>
+      </c>
+      <c r="AI5">
+        <v>88.53</v>
+      </c>
+      <c r="AJ5">
+        <v>76.56</v>
+      </c>
+      <c r="AK5">
+        <v>88.44</v>
+      </c>
+      <c r="AL5">
         <v>113.36</v>
       </c>
-      <c r="AM3" s="0">
+      <c r="AM5">
         <v>113.36</v>
       </c>
-      <c r="AN3" s="0">
-        <v>22.309999999999999</v>
+      <c r="AN5">
+        <v>22.31</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>308</v>
+      </c>
+      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <v>308</v>
+      </c>
+      <c r="I6">
+        <v>308</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>275</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>308</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="U8">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="X8">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
         <v>240</v>
       </c>
-      <c r="C4" s="0">
-        <v>307</v>
-      </c>
-      <c r="D4" s="0">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0">
-        <v>47</v>
-      </c>
-      <c r="H4" s="0">
-        <v>38</v>
-      </c>
-      <c r="I4" s="0">
-        <v>36</v>
-      </c>
-      <c r="J4" s="0">
-        <v>239</v>
-      </c>
-      <c r="K4" s="0">
-        <v>239</v>
-      </c>
-      <c r="L4" s="0">
-        <v>285</v>
-      </c>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
-      <c r="AM4" s="0"/>
-      <c r="AN4" s="0"/>
+      <c r="C9">
+        <v>275</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.1784</v>
+      </c>
+      <c r="U9">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.2132</v>
+      </c>
+      <c r="W9">
+        <v>0.2132</v>
+      </c>
+      <c r="X9">
+        <v>8.1299999999999997E-2</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="F5" s="0">
-        <v>71</v>
-      </c>
-      <c r="G5" s="0">
-        <v>65</v>
-      </c>
-      <c r="H5" s="0">
-        <v>258</v>
-      </c>
-      <c r="I5" s="0">
-        <v>106</v>
-      </c>
-      <c r="J5" s="0">
-        <v>308</v>
-      </c>
-      <c r="K5" s="0">
-        <v>308</v>
-      </c>
-      <c r="L5" s="0">
-        <v>308</v>
-      </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="S5" s="0">
-        <v>1.3546</v>
-      </c>
-      <c r="T5" s="0">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="U5" s="0">
-        <v>1.0844</v>
-      </c>
-      <c r="V5" s="0">
-        <v>0.9667</v>
-      </c>
-      <c r="W5" s="0">
-        <v>0.9667</v>
-      </c>
-      <c r="X5" s="0">
-        <v>0.2026</v>
-      </c>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="AA5" s="0">
-        <v>0.80279999999999996</v>
-      </c>
-      <c r="AB5" s="0">
-        <v>0.62439999999999996</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="AD5" s="0">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AE5" s="0">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AF5" s="0">
-        <v>0.2092</v>
-      </c>
-      <c r="AG5" s="0"/>
-      <c r="AH5" s="0">
-        <v>65.280000000000001</v>
-      </c>
-      <c r="AI5" s="0">
-        <v>88.530000000000001</v>
-      </c>
-      <c r="AJ5" s="0">
-        <v>76.560000000000002</v>
-      </c>
-      <c r="AK5" s="0">
-        <v>88.439999999999998</v>
-      </c>
-      <c r="AL5" s="0">
-        <v>113.36</v>
-      </c>
-      <c r="AM5" s="0">
-        <v>113.36</v>
-      </c>
-      <c r="AN5" s="0">
-        <v>22.309999999999999</v>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>0.1195</v>
+      </c>
+      <c r="S10">
+        <v>1.23E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.47E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="X10">
+        <v>0.2402</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0">
-        <v>55</v>
-      </c>
-      <c r="F6" s="0">
-        <v>308</v>
-      </c>
-      <c r="G6" s="0">
-        <v>107</v>
-      </c>
-      <c r="H6" s="0">
-        <v>308</v>
-      </c>
-      <c r="I6" s="0">
-        <v>308</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
-      <c r="AL6" s="0"/>
-      <c r="AM6" s="0"/>
-      <c r="AN6" s="0"/>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0">
-        <v>239</v>
-      </c>
-      <c r="C7" s="0">
-        <v>275</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0">
-        <v>308</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0"/>
-      <c r="AN7" s="0"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="S8" s="0">
-        <v>0.75670000000000004</v>
-      </c>
-      <c r="T8" s="0">
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="U8" s="0">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="V8" s="0">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="W8" s="0">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="X8" s="0">
-        <v>0.1452</v>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0"/>
-      <c r="AN8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="0">
-        <v>240</v>
-      </c>
-      <c r="C9" s="0">
-        <v>275</v>
-      </c>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="S9" s="0">
-        <v>0.26579999999999998</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0.1784</v>
-      </c>
-      <c r="U9" s="0">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="V9" s="0">
-        <v>0.2132</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0.2132</v>
-      </c>
-      <c r="X9" s="0">
-        <v>0.081299999999999997</v>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
-      <c r="AM9" s="0"/>
-      <c r="AN9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0">
-        <v>0.1195</v>
-      </c>
-      <c r="S10" s="0">
-        <v>0.0123</v>
-      </c>
-      <c r="T10" s="0">
-        <v>0.0247</v>
-      </c>
-      <c r="U10" s="0">
-        <v>0.023199999999999998</v>
-      </c>
-      <c r="V10" s="0">
-        <v>0.0235</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0.0235</v>
-      </c>
-      <c r="X10" s="0">
-        <v>0.2402</v>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
-      <c r="AH10" s="0"/>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
-      <c r="AM10" s="0"/>
-      <c r="AN10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0" t="s">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0">
-        <v>1.3</v>
-      </c>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
-      <c r="AH11" s="0"/>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0"/>
-      <c r="AK11" s="0"/>
-      <c r="AL11" s="0"/>
-      <c r="AM11" s="0"/>
-      <c r="AN11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0">
+      <c r="R12">
         <v>94415</v>
       </c>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="0"/>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0"/>
-      <c r="AK12" s="0"/>
-      <c r="AL12" s="0"/>
-      <c r="AM12" s="0"/>
-      <c r="AN12" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
